--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Joseph_Garidel/Pierre_Joseph_Garidel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Joseph_Garidel/Pierre_Joseph_Garidel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Joseph Garidel est un médecin et botaniste français, né le 1er août 1658 à Aix-en-Provence et mort le 6 juin 1737 à Aix-en-Provence.
 </t>
@@ -511,7 +523,9 @@
           <t>Enfance et études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Pierre Garidel, avocat, et de Louise de Barthelemy, Pierre Joseph est le cinquième enfant d'une famille de huit. Il poursuit ses études au collège des jésuites, passant ses jours de congé dans le jardin de l'apothicaire Jacques Daumas. Il y rencontre Joseph Pitton de Tournefort (1656-1708). Ils herboriseront ensemble en Provence, Dauphiné et Savoie.
 Il entreprend ses études de médecine à Aix avec pour professeurs Honoré Bicaise et Antoine Mérindol.
@@ -543,7 +557,9 @@
           <t>Le médecin et le botaniste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est reçu docteur le 23 juin 1682 à Aix-en-Provence et continue de recueillir des plantes. En 1689 il rencontre le père Charles Plumier (1646-1704) de retour des Antilles et lui fait connaître Tournefort. Avec l'appui de ce dernier, il est nommé le 28 septembre 1697 correspondant de l'Académie des sciences. Toutefois Tournefort n'arrivera pas à lui faire quitter la Provence car « il était trop amoureux de sa botanique de Provence pour se résoudre à changer ainsi de résidence pour le gain » (lettre du 28 janvier 1721 de Saurin à Decormis. Bibliothèque de la Méjanes).
 Le 22 septembre 1707, il épouse à 48 ans Marguerite de Constant. Il n'aura pas d'enfant mais s'occupera de ses neveux et plus particulièrement de Joseph Lieutaud (1703-1780) qui deviendra médecin du roi.
@@ -578,10 +594,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Histoire des plantes qui naissent aux environs d'Aix-en-Provence et dans plusieurs autres endroits de la Provence, Aix, Joseph David imprimeur du roy, 1715. 1 volume in folio avec XLVII pages de préface et d'explications des noms d'auteurs botanistes, 522 pages de texte et 22 pages non chiffrées de tables, avec 100 planches et un frontispice (Lire en ligne).
-Une critique élogieuse de ce livre parait dans le Journal des Savants en 1718 qui précise que « M. Garidel a pour la botanique le même goût qu'avait le célèbre M. de Tournefort dont il était le compagnon d'étude et ami dès l'enfance ; il joint à ce goût une expérience acquise par une longue pratique de sa profession ». L'article se termine en précisant qu'« il serait à souhaiter pour le progrès de la botanique que tous ceux qui traitent de cette matière le fassent avec autant d' exactitude et de détail que M. Garidel et sussent en tirer autant d'avantage »[1].
+Une critique élogieuse de ce livre parait dans le Journal des Savants en 1718 qui précise que « M. Garidel a pour la botanique le même goût qu'avait le célèbre M. de Tournefort dont il était le compagnon d'étude et ami dès l'enfance ; il joint à ce goût une expérience acquise par une longue pratique de sa profession ». L'article se termine en précisant qu'« il serait à souhaiter pour le progrès de la botanique que tous ceux qui traitent de cette matière le fassent avec autant d' exactitude et de détail que M. Garidel et sussent en tirer autant d'avantage ».
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl von Linné (1707-1778) a repris le nom de Garidella donné par Tournefort (1700, p. 655) en son honneur à un genre de plante de la famille des renonculacées. On a décrit deux espèces de ce genre dont la Garidelle Nigelle (Garidella nigellastrum), plante messicole typique que l'on ne trouve plus que dans le Vaucluse et les Bouches-du-Rhône ; la seule station stable se trouve dans le Vaucluse où des efforts sont menés conjointement par le Parc Naturel Régional du Luberon[2] et le Conservatoire national de botanique de Porquerolles[3] pour préserver le site. Cette plante est protégée au titre de l'annexe I de l'arrêté ministériel du 20 janvier 1982[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl von Linné (1707-1778) a repris le nom de Garidella donné par Tournefort (1700, p. 655) en son honneur à un genre de plante de la famille des renonculacées. On a décrit deux espèces de ce genre dont la Garidelle Nigelle (Garidella nigellastrum), plante messicole typique que l'on ne trouve plus que dans le Vaucluse et les Bouches-du-Rhône ; la seule station stable se trouve dans le Vaucluse où des efforts sont menés conjointement par le Parc Naturel Régional du Luberon et le Conservatoire national de botanique de Porquerolles pour préserver le site. Cette plante est protégée au titre de l'annexe I de l'arrêté ministériel du 20 janvier 1982.
 La ville de Manosque a donné le nom de Pierre Garidel à un de ses boulevards.
 </t>
         </is>
@@ -642,7 +662,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Georges J. Aillaud, Yvon Georgelin, Henri Tachoire : Marseille 2600 ans de découvertes scientifiques, Publications de l'Université de Provence, 2002.
 Georges J.Aillaud, Jean-Patrick Ferrari et Guy Hazzan : Les botanistes à Marseille et en Provence du XVIe au XIXe siècle (catalogue de l'exposition) ville de Marseille, 1982, 136 p. + 12 pl.
